--- a/Testing/pbli_50mtu_mats.xlsx
+++ b/Testing/pbli_50mtu_mats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07B44E-723B-4350-A955-E51B62FA266B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2EC688-30FC-4B6C-8A1B-17BA9C39D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-24" windowWidth="30936" windowHeight="17496" xr2:uid="{76DDBC74-8BA9-4614-9797-8B13A90F1FB8}"/>
+    <workbookView xWindow="-29484" yWindow="4212" windowWidth="23040" windowHeight="12660" xr2:uid="{76DDBC74-8BA9-4614-9797-8B13A90F1FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="pbli_50mtu_mats" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
